--- a/InvoiceBackup1.xlsx
+++ b/InvoiceBackup1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vipul Garg\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vipul Garg\Desktop\GitTrainingProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{014CE84F-6802-4F12-B1D2-F7ED4D5D896E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA2680D-EFB2-4C30-9B40-F5DFDFD0D575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28908" yWindow="-108" windowWidth="29016" windowHeight="15696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Table 1" sheetId="1" r:id="rId1"/>
@@ -467,13 +467,13 @@
     <xf numFmtId="164" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -481,12 +481,6 @@
     </xf>
     <xf numFmtId="1" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,6 +504,12 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1665,7 +1665,7 @@
   <dimension ref="A1:V66"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y10" sqref="Y10"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.109375" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1685,38 +1685,38 @@
     <col min="16" max="16" width="3.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="5.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="6.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="12.109375" style="25" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="18.109375" style="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="21" width="12.109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="18.109375" style="23" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="14.109375" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="24" t="s">
         <v>101</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
-      <c r="L1" s="16"/>
-      <c r="M1" s="16"/>
-      <c r="N1" s="16"/>
-      <c r="O1" s="16"/>
-      <c r="P1" s="16"/>
-      <c r="Q1" s="16"/>
-      <c r="R1" s="16"/>
-      <c r="S1" s="17" t="s">
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
+      <c r="I1" s="24"/>
+      <c r="J1" s="24"/>
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="M1" s="24"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="25" t="s">
         <v>102</v>
       </c>
-      <c r="T1" s="17"/>
-      <c r="U1" s="17"/>
-      <c r="V1" s="17"/>
+      <c r="T1" s="25"/>
+      <c r="U1" s="25"/>
+      <c r="V1" s="25"/>
     </row>
     <row r="2" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
@@ -1773,16 +1773,16 @@
       <c r="R2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="S2" s="18" t="s">
+      <c r="S2" s="16" t="s">
         <v>97</v>
       </c>
-      <c r="T2" s="18" t="s">
+      <c r="T2" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="U2" s="18" t="s">
+      <c r="U2" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="V2" s="18" t="s">
+      <c r="V2" s="16" t="s">
         <v>99</v>
       </c>
     </row>
@@ -1791,7 +1791,7 @@
         <v>14</v>
       </c>
       <c r="B3" s="12">
-        <v>173040</v>
+        <v>1730401</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>33</v>
@@ -1839,16 +1839,16 @@
       <c r="R3" s="15">
         <v>2</v>
       </c>
-      <c r="S3" s="19">
+      <c r="S3" s="17">
         <v>45638</v>
       </c>
-      <c r="T3" s="19">
+      <c r="T3" s="17">
         <v>45639</v>
       </c>
-      <c r="U3" s="19">
+      <c r="U3" s="17">
         <v>45639</v>
       </c>
-      <c r="V3" s="20" t="s">
+      <c r="V3" s="18" t="s">
         <v>100</v>
       </c>
     </row>
@@ -1905,12 +1905,12 @@
       <c r="R4" s="15">
         <v>2</v>
       </c>
-      <c r="S4" s="21"/>
-      <c r="T4" s="19">
+      <c r="S4" s="19"/>
+      <c r="T4" s="17">
         <v>44475</v>
       </c>
-      <c r="U4" s="20"/>
-      <c r="V4" s="20" t="s">
+      <c r="U4" s="18"/>
+      <c r="V4" s="18" t="s">
         <v>98</v>
       </c>
     </row>
@@ -1967,16 +1967,16 @@
       <c r="R5" s="15">
         <v>2</v>
       </c>
-      <c r="S5" s="22">
+      <c r="S5" s="20">
         <v>45628</v>
       </c>
-      <c r="T5" s="19">
+      <c r="T5" s="17">
         <v>45630</v>
       </c>
-      <c r="U5" s="19">
+      <c r="U5" s="17">
         <v>45630</v>
       </c>
-      <c r="V5" s="20" t="s">
+      <c r="V5" s="18" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2033,16 +2033,16 @@
       <c r="R6" s="15">
         <v>2</v>
       </c>
-      <c r="S6" s="22">
+      <c r="S6" s="20">
         <v>45587</v>
       </c>
-      <c r="T6" s="19">
+      <c r="T6" s="17">
         <v>45588</v>
       </c>
-      <c r="U6" s="19">
+      <c r="U6" s="17">
         <v>45588</v>
       </c>
-      <c r="V6" s="20" t="s">
+      <c r="V6" s="18" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2099,16 +2099,16 @@
       <c r="R7" s="15">
         <v>2</v>
       </c>
-      <c r="S7" s="22">
+      <c r="S7" s="20">
         <v>45634</v>
       </c>
-      <c r="T7" s="19">
+      <c r="T7" s="17">
         <v>45635</v>
       </c>
-      <c r="U7" s="19">
+      <c r="U7" s="17">
         <v>45635</v>
       </c>
-      <c r="V7" s="20" t="s">
+      <c r="V7" s="18" t="s">
         <v>100</v>
       </c>
     </row>
@@ -2167,10 +2167,10 @@
       <c r="R8" s="6">
         <v>1</v>
       </c>
-      <c r="S8" s="23"/>
-      <c r="T8" s="18"/>
-      <c r="U8" s="18"/>
-      <c r="V8" s="18"/>
+      <c r="S8" s="21"/>
+      <c r="T8" s="16"/>
+      <c r="U8" s="16"/>
+      <c r="V8" s="16"/>
     </row>
     <row r="9" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
@@ -2225,10 +2225,10 @@
       <c r="R9" s="6">
         <v>2</v>
       </c>
-      <c r="S9" s="23"/>
-      <c r="T9" s="18"/>
-      <c r="U9" s="18"/>
-      <c r="V9" s="18"/>
+      <c r="S9" s="21"/>
+      <c r="T9" s="16"/>
+      <c r="U9" s="16"/>
+      <c r="V9" s="16"/>
     </row>
     <row r="10" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="7" t="s">
@@ -2283,10 +2283,10 @@
       <c r="R10" s="6">
         <v>2</v>
       </c>
-      <c r="S10" s="23"/>
-      <c r="T10" s="18"/>
-      <c r="U10" s="18"/>
-      <c r="V10" s="18"/>
+      <c r="S10" s="21"/>
+      <c r="T10" s="16"/>
+      <c r="U10" s="16"/>
+      <c r="V10" s="16"/>
     </row>
     <row r="11" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
@@ -2341,10 +2341,10 @@
       <c r="R11" s="6">
         <v>2</v>
       </c>
-      <c r="S11" s="23"/>
-      <c r="T11" s="18"/>
-      <c r="U11" s="18"/>
-      <c r="V11" s="18"/>
+      <c r="S11" s="21"/>
+      <c r="T11" s="16"/>
+      <c r="U11" s="16"/>
+      <c r="V11" s="16"/>
     </row>
     <row r="12" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
@@ -2399,10 +2399,10 @@
       <c r="R12" s="6">
         <v>2</v>
       </c>
-      <c r="S12" s="23"/>
-      <c r="T12" s="18"/>
-      <c r="U12" s="18"/>
-      <c r="V12" s="18"/>
+      <c r="S12" s="21"/>
+      <c r="T12" s="16"/>
+      <c r="U12" s="16"/>
+      <c r="V12" s="16"/>
     </row>
     <row r="13" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
@@ -2457,10 +2457,10 @@
       <c r="R13" s="6">
         <v>2</v>
       </c>
-      <c r="S13" s="23"/>
-      <c r="T13" s="18"/>
-      <c r="U13" s="18"/>
-      <c r="V13" s="18"/>
+      <c r="S13" s="21"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
     </row>
     <row r="14" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
@@ -2515,10 +2515,10 @@
       <c r="R14" s="6">
         <v>2</v>
       </c>
-      <c r="S14" s="23"/>
-      <c r="T14" s="18"/>
-      <c r="U14" s="18"/>
-      <c r="V14" s="18"/>
+      <c r="S14" s="21"/>
+      <c r="T14" s="16"/>
+      <c r="U14" s="16"/>
+      <c r="V14" s="16"/>
     </row>
     <row r="15" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
@@ -2573,10 +2573,10 @@
       <c r="R15" s="6">
         <v>2</v>
       </c>
-      <c r="S15" s="23"/>
-      <c r="T15" s="18"/>
-      <c r="U15" s="18"/>
-      <c r="V15" s="18"/>
+      <c r="S15" s="21"/>
+      <c r="T15" s="16"/>
+      <c r="U15" s="16"/>
+      <c r="V15" s="16"/>
     </row>
     <row r="16" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
@@ -2631,10 +2631,10 @@
       <c r="R16" s="6">
         <v>2</v>
       </c>
-      <c r="S16" s="23"/>
-      <c r="T16" s="18"/>
-      <c r="U16" s="18"/>
-      <c r="V16" s="18"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="16"/>
+      <c r="U16" s="16"/>
+      <c r="V16" s="16"/>
     </row>
     <row r="17" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
@@ -2689,10 +2689,10 @@
       <c r="R17" s="6">
         <v>2</v>
       </c>
-      <c r="S17" s="23"/>
-      <c r="T17" s="18"/>
-      <c r="U17" s="18"/>
-      <c r="V17" s="18"/>
+      <c r="S17" s="21"/>
+      <c r="T17" s="16"/>
+      <c r="U17" s="16"/>
+      <c r="V17" s="16"/>
     </row>
     <row r="18" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
@@ -2747,10 +2747,10 @@
       <c r="R18" s="6">
         <v>2</v>
       </c>
-      <c r="S18" s="23"/>
-      <c r="T18" s="18"/>
-      <c r="U18" s="18"/>
-      <c r="V18" s="18"/>
+      <c r="S18" s="21"/>
+      <c r="T18" s="16"/>
+      <c r="U18" s="16"/>
+      <c r="V18" s="16"/>
     </row>
     <row r="19" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
@@ -2805,10 +2805,10 @@
       <c r="R19" s="6">
         <v>2</v>
       </c>
-      <c r="S19" s="23"/>
-      <c r="T19" s="18"/>
-      <c r="U19" s="18"/>
-      <c r="V19" s="18"/>
+      <c r="S19" s="21"/>
+      <c r="T19" s="16"/>
+      <c r="U19" s="16"/>
+      <c r="V19" s="16"/>
     </row>
     <row r="20" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
@@ -2863,10 +2863,10 @@
       <c r="R20" s="6">
         <v>2</v>
       </c>
-      <c r="S20" s="23"/>
-      <c r="T20" s="18"/>
-      <c r="U20" s="18"/>
-      <c r="V20" s="18"/>
+      <c r="S20" s="21"/>
+      <c r="T20" s="16"/>
+      <c r="U20" s="16"/>
+      <c r="V20" s="16"/>
     </row>
     <row r="21" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
@@ -2921,10 +2921,10 @@
       <c r="R21" s="6">
         <v>2</v>
       </c>
-      <c r="S21" s="23"/>
-      <c r="T21" s="18"/>
-      <c r="U21" s="18"/>
-      <c r="V21" s="18"/>
+      <c r="S21" s="21"/>
+      <c r="T21" s="16"/>
+      <c r="U21" s="16"/>
+      <c r="V21" s="16"/>
     </row>
     <row r="22" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
@@ -2979,10 +2979,10 @@
       <c r="R22" s="6">
         <v>2</v>
       </c>
-      <c r="S22" s="23"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="18"/>
-      <c r="V22" s="18"/>
+      <c r="S22" s="21"/>
+      <c r="T22" s="16"/>
+      <c r="U22" s="16"/>
+      <c r="V22" s="16"/>
     </row>
     <row r="23" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
@@ -3039,10 +3039,10 @@
       <c r="R23" s="6">
         <v>2</v>
       </c>
-      <c r="S23" s="23"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="18"/>
-      <c r="V23" s="18"/>
+      <c r="S23" s="21"/>
+      <c r="T23" s="16"/>
+      <c r="U23" s="16"/>
+      <c r="V23" s="16"/>
     </row>
     <row r="24" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
@@ -3097,10 +3097,10 @@
       <c r="R24" s="6">
         <v>2</v>
       </c>
-      <c r="S24" s="23"/>
-      <c r="T24" s="18"/>
-      <c r="U24" s="18"/>
-      <c r="V24" s="18"/>
+      <c r="S24" s="21"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
     </row>
     <row r="25" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
@@ -3155,10 +3155,10 @@
       <c r="R25" s="6">
         <v>2</v>
       </c>
-      <c r="S25" s="23"/>
-      <c r="T25" s="18"/>
-      <c r="U25" s="18"/>
-      <c r="V25" s="18"/>
+      <c r="S25" s="21"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
     </row>
     <row r="26" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
@@ -3213,10 +3213,10 @@
       <c r="R26" s="6">
         <v>2</v>
       </c>
-      <c r="S26" s="23"/>
-      <c r="T26" s="18"/>
-      <c r="U26" s="18"/>
-      <c r="V26" s="18"/>
+      <c r="S26" s="21"/>
+      <c r="T26" s="16"/>
+      <c r="U26" s="16"/>
+      <c r="V26" s="16"/>
     </row>
     <row r="27" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
@@ -3273,10 +3273,10 @@
       <c r="R27" s="6">
         <v>2</v>
       </c>
-      <c r="S27" s="23"/>
-      <c r="T27" s="18"/>
-      <c r="U27" s="18"/>
-      <c r="V27" s="18"/>
+      <c r="S27" s="21"/>
+      <c r="T27" s="16"/>
+      <c r="U27" s="16"/>
+      <c r="V27" s="16"/>
     </row>
     <row r="28" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
@@ -3333,10 +3333,10 @@
       <c r="R28" s="6">
         <v>3</v>
       </c>
-      <c r="S28" s="23"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
+      <c r="S28" s="21"/>
+      <c r="T28" s="16"/>
+      <c r="U28" s="16"/>
+      <c r="V28" s="16"/>
     </row>
     <row r="29" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
@@ -3393,10 +3393,10 @@
       <c r="R29" s="6">
         <v>7</v>
       </c>
-      <c r="S29" s="23"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
+      <c r="S29" s="21"/>
+      <c r="T29" s="16"/>
+      <c r="U29" s="16"/>
+      <c r="V29" s="16"/>
     </row>
     <row r="30" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
@@ -3453,10 +3453,10 @@
       <c r="R30" s="6">
         <v>3</v>
       </c>
-      <c r="S30" s="23"/>
-      <c r="T30" s="18"/>
-      <c r="U30" s="18"/>
-      <c r="V30" s="18"/>
+      <c r="S30" s="21"/>
+      <c r="T30" s="16"/>
+      <c r="U30" s="16"/>
+      <c r="V30" s="16"/>
     </row>
     <row r="31" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
@@ -3513,10 +3513,10 @@
       <c r="R31" s="6">
         <v>7</v>
       </c>
-      <c r="S31" s="23"/>
-      <c r="T31" s="18"/>
-      <c r="U31" s="18"/>
-      <c r="V31" s="18"/>
+      <c r="S31" s="21"/>
+      <c r="T31" s="16"/>
+      <c r="U31" s="16"/>
+      <c r="V31" s="16"/>
     </row>
     <row r="32" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
@@ -3573,10 +3573,10 @@
       <c r="R32" s="6">
         <v>3</v>
       </c>
-      <c r="S32" s="23"/>
-      <c r="T32" s="18"/>
-      <c r="U32" s="18"/>
-      <c r="V32" s="18"/>
+      <c r="S32" s="21"/>
+      <c r="T32" s="16"/>
+      <c r="U32" s="16"/>
+      <c r="V32" s="16"/>
     </row>
     <row r="33" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
@@ -3633,10 +3633,10 @@
       <c r="R33" s="6">
         <v>7</v>
       </c>
-      <c r="S33" s="23"/>
-      <c r="T33" s="18"/>
-      <c r="U33" s="18"/>
-      <c r="V33" s="18"/>
+      <c r="S33" s="21"/>
+      <c r="T33" s="16"/>
+      <c r="U33" s="16"/>
+      <c r="V33" s="16"/>
     </row>
     <row r="34" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
@@ -3693,10 +3693,10 @@
       <c r="R34" s="6">
         <v>7</v>
       </c>
-      <c r="S34" s="23"/>
-      <c r="T34" s="18"/>
-      <c r="U34" s="18"/>
-      <c r="V34" s="18"/>
+      <c r="S34" s="21"/>
+      <c r="T34" s="16"/>
+      <c r="U34" s="16"/>
+      <c r="V34" s="16"/>
     </row>
     <row r="35" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
@@ -3753,10 +3753,10 @@
       <c r="R35" s="6">
         <v>7</v>
       </c>
-      <c r="S35" s="23"/>
-      <c r="T35" s="18"/>
-      <c r="U35" s="18"/>
-      <c r="V35" s="18"/>
+      <c r="S35" s="21"/>
+      <c r="T35" s="16"/>
+      <c r="U35" s="16"/>
+      <c r="V35" s="16"/>
     </row>
     <row r="36" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
@@ -3813,10 +3813,10 @@
       <c r="R36" s="6">
         <v>3</v>
       </c>
-      <c r="S36" s="23"/>
-      <c r="T36" s="18"/>
-      <c r="U36" s="18"/>
-      <c r="V36" s="18"/>
+      <c r="S36" s="21"/>
+      <c r="T36" s="16"/>
+      <c r="U36" s="16"/>
+      <c r="V36" s="16"/>
     </row>
     <row r="37" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
@@ -3873,10 +3873,10 @@
       <c r="R37" s="6">
         <v>7</v>
       </c>
-      <c r="S37" s="23"/>
-      <c r="T37" s="18"/>
-      <c r="U37" s="18"/>
-      <c r="V37" s="18"/>
+      <c r="S37" s="21"/>
+      <c r="T37" s="16"/>
+      <c r="U37" s="16"/>
+      <c r="V37" s="16"/>
     </row>
     <row r="38" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
@@ -3933,10 +3933,10 @@
       <c r="R38" s="6">
         <v>4</v>
       </c>
-      <c r="S38" s="23"/>
-      <c r="T38" s="18"/>
-      <c r="U38" s="18"/>
-      <c r="V38" s="18"/>
+      <c r="S38" s="21"/>
+      <c r="T38" s="16"/>
+      <c r="U38" s="16"/>
+      <c r="V38" s="16"/>
     </row>
     <row r="39" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
@@ -3993,10 +3993,10 @@
       <c r="R39" s="6">
         <v>7</v>
       </c>
-      <c r="S39" s="23"/>
-      <c r="T39" s="18"/>
-      <c r="U39" s="18"/>
-      <c r="V39" s="18"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="16"/>
+      <c r="U39" s="16"/>
+      <c r="V39" s="16"/>
     </row>
     <row r="40" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
@@ -4053,10 +4053,10 @@
       <c r="R40" s="6">
         <v>7</v>
       </c>
-      <c r="S40" s="23"/>
-      <c r="T40" s="18"/>
-      <c r="U40" s="18"/>
-      <c r="V40" s="18"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="16"/>
+      <c r="U40" s="16"/>
+      <c r="V40" s="16"/>
     </row>
     <row r="41" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
@@ -4113,10 +4113,10 @@
       <c r="R41" s="6">
         <v>3</v>
       </c>
-      <c r="S41" s="23"/>
-      <c r="T41" s="18"/>
-      <c r="U41" s="18"/>
-      <c r="V41" s="18"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="16"/>
+      <c r="U41" s="16"/>
+      <c r="V41" s="16"/>
     </row>
     <row r="42" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
@@ -4173,10 +4173,10 @@
       <c r="R42" s="6">
         <v>7</v>
       </c>
-      <c r="S42" s="23"/>
-      <c r="T42" s="18"/>
-      <c r="U42" s="18"/>
-      <c r="V42" s="18"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="16"/>
+      <c r="U42" s="16"/>
+      <c r="V42" s="16"/>
     </row>
     <row r="43" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
@@ -4233,10 +4233,10 @@
       <c r="R43" s="6">
         <v>7</v>
       </c>
-      <c r="S43" s="23"/>
-      <c r="T43" s="18"/>
-      <c r="U43" s="18"/>
-      <c r="V43" s="18"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="16"/>
+      <c r="U43" s="16"/>
+      <c r="V43" s="16"/>
     </row>
     <row r="44" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
@@ -4293,10 +4293,10 @@
       <c r="R44" s="6">
         <v>3</v>
       </c>
-      <c r="S44" s="23"/>
-      <c r="T44" s="18"/>
-      <c r="U44" s="18"/>
-      <c r="V44" s="18"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="16"/>
+      <c r="U44" s="16"/>
+      <c r="V44" s="16"/>
     </row>
     <row r="45" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
@@ -4353,10 +4353,10 @@
       <c r="R45" s="6">
         <v>3</v>
       </c>
-      <c r="S45" s="23"/>
-      <c r="T45" s="18"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="16"/>
+      <c r="U45" s="16"/>
+      <c r="V45" s="16"/>
     </row>
     <row r="46" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
@@ -4413,10 +4413,10 @@
       <c r="R46" s="6">
         <v>3</v>
       </c>
-      <c r="S46" s="23"/>
-      <c r="T46" s="18"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="16"/>
+      <c r="U46" s="16"/>
+      <c r="V46" s="16"/>
     </row>
     <row r="47" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
@@ -4473,10 +4473,10 @@
       <c r="R47" s="6">
         <v>7</v>
       </c>
-      <c r="S47" s="23"/>
-      <c r="T47" s="18"/>
-      <c r="U47" s="18"/>
-      <c r="V47" s="18"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="16"/>
+      <c r="U47" s="16"/>
+      <c r="V47" s="16"/>
     </row>
     <row r="48" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
@@ -4533,10 +4533,10 @@
       <c r="R48" s="6">
         <v>4</v>
       </c>
-      <c r="S48" s="23"/>
-      <c r="T48" s="18"/>
-      <c r="U48" s="18"/>
-      <c r="V48" s="18"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
     </row>
     <row r="49" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
@@ -4593,10 +4593,10 @@
       <c r="R49" s="6">
         <v>7</v>
       </c>
-      <c r="S49" s="23"/>
-      <c r="T49" s="18"/>
-      <c r="U49" s="18"/>
-      <c r="V49" s="18"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="16"/>
+      <c r="U49" s="16"/>
+      <c r="V49" s="16"/>
     </row>
     <row r="50" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
@@ -4653,10 +4653,10 @@
       <c r="R50" s="6">
         <v>7</v>
       </c>
-      <c r="S50" s="23"/>
-      <c r="T50" s="18"/>
-      <c r="U50" s="18"/>
-      <c r="V50" s="18"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="16"/>
+      <c r="U50" s="16"/>
+      <c r="V50" s="16"/>
     </row>
     <row r="51" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
@@ -4713,10 +4713,10 @@
       <c r="R51" s="6">
         <v>3</v>
       </c>
-      <c r="S51" s="23"/>
-      <c r="T51" s="18"/>
-      <c r="U51" s="18"/>
-      <c r="V51" s="18"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="16"/>
+      <c r="U51" s="16"/>
+      <c r="V51" s="16"/>
     </row>
     <row r="52" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
@@ -4773,10 +4773,10 @@
       <c r="R52" s="6">
         <v>3</v>
       </c>
-      <c r="S52" s="23"/>
-      <c r="T52" s="18"/>
-      <c r="U52" s="18"/>
-      <c r="V52" s="18"/>
+      <c r="S52" s="21"/>
+      <c r="T52" s="16"/>
+      <c r="U52" s="16"/>
+      <c r="V52" s="16"/>
     </row>
     <row r="53" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
@@ -4833,10 +4833,10 @@
       <c r="R53" s="6">
         <v>3</v>
       </c>
-      <c r="S53" s="23"/>
-      <c r="T53" s="18"/>
-      <c r="U53" s="18"/>
-      <c r="V53" s="18"/>
+      <c r="S53" s="21"/>
+      <c r="T53" s="16"/>
+      <c r="U53" s="16"/>
+      <c r="V53" s="16"/>
     </row>
     <row r="54" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
@@ -4893,10 +4893,10 @@
       <c r="R54" s="6">
         <v>3</v>
       </c>
-      <c r="S54" s="23"/>
-      <c r="T54" s="18"/>
-      <c r="U54" s="18"/>
-      <c r="V54" s="18"/>
+      <c r="S54" s="21"/>
+      <c r="T54" s="16"/>
+      <c r="U54" s="16"/>
+      <c r="V54" s="16"/>
     </row>
     <row r="55" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
@@ -4953,10 +4953,10 @@
       <c r="R55" s="6">
         <v>3</v>
       </c>
-      <c r="S55" s="23"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
+      <c r="S55" s="21"/>
+      <c r="T55" s="16"/>
+      <c r="U55" s="16"/>
+      <c r="V55" s="16"/>
     </row>
     <row r="56" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
@@ -5013,10 +5013,10 @@
       <c r="R56" s="6">
         <v>4</v>
       </c>
-      <c r="S56" s="23"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
+      <c r="S56" s="21"/>
+      <c r="T56" s="16"/>
+      <c r="U56" s="16"/>
+      <c r="V56" s="16"/>
     </row>
     <row r="57" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
@@ -5073,10 +5073,10 @@
       <c r="R57" s="6">
         <v>4</v>
       </c>
-      <c r="S57" s="23"/>
-      <c r="T57" s="18"/>
-      <c r="U57" s="18"/>
-      <c r="V57" s="18"/>
+      <c r="S57" s="21"/>
+      <c r="T57" s="16"/>
+      <c r="U57" s="16"/>
+      <c r="V57" s="16"/>
     </row>
     <row r="58" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
@@ -5133,10 +5133,10 @@
       <c r="R58" s="6">
         <v>4</v>
       </c>
-      <c r="S58" s="23"/>
-      <c r="T58" s="18"/>
-      <c r="U58" s="18"/>
-      <c r="V58" s="18"/>
+      <c r="S58" s="21"/>
+      <c r="T58" s="16"/>
+      <c r="U58" s="16"/>
+      <c r="V58" s="16"/>
     </row>
     <row r="59" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
@@ -5193,10 +5193,10 @@
       <c r="R59" s="6">
         <v>4</v>
       </c>
-      <c r="S59" s="23"/>
-      <c r="T59" s="18"/>
-      <c r="U59" s="18"/>
-      <c r="V59" s="18"/>
+      <c r="S59" s="21"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
     </row>
     <row r="60" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
@@ -5253,10 +5253,10 @@
       <c r="R60" s="6">
         <v>4</v>
       </c>
-      <c r="S60" s="23"/>
-      <c r="T60" s="18"/>
-      <c r="U60" s="18"/>
-      <c r="V60" s="18"/>
+      <c r="S60" s="21"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
     </row>
     <row r="61" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
@@ -5313,10 +5313,10 @@
       <c r="R61" s="6">
         <v>3</v>
       </c>
-      <c r="S61" s="23"/>
-      <c r="T61" s="18"/>
-      <c r="U61" s="18"/>
-      <c r="V61" s="18"/>
+      <c r="S61" s="21"/>
+      <c r="T61" s="16"/>
+      <c r="U61" s="16"/>
+      <c r="V61" s="16"/>
     </row>
     <row r="62" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
@@ -5373,10 +5373,10 @@
       <c r="R62" s="6">
         <v>4</v>
       </c>
-      <c r="S62" s="23"/>
-      <c r="T62" s="18"/>
-      <c r="U62" s="18"/>
-      <c r="V62" s="18"/>
+      <c r="S62" s="21"/>
+      <c r="T62" s="16"/>
+      <c r="U62" s="16"/>
+      <c r="V62" s="16"/>
     </row>
     <row r="63" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
@@ -5433,10 +5433,10 @@
       <c r="R63" s="6">
         <v>4</v>
       </c>
-      <c r="S63" s="23"/>
-      <c r="T63" s="18"/>
-      <c r="U63" s="18"/>
-      <c r="V63" s="18"/>
+      <c r="S63" s="21"/>
+      <c r="T63" s="16"/>
+      <c r="U63" s="16"/>
+      <c r="V63" s="16"/>
     </row>
     <row r="64" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
@@ -5493,10 +5493,10 @@
       <c r="R64" s="6">
         <v>4</v>
       </c>
-      <c r="S64" s="23"/>
-      <c r="T64" s="18"/>
-      <c r="U64" s="18"/>
-      <c r="V64" s="18"/>
+      <c r="S64" s="21"/>
+      <c r="T64" s="16"/>
+      <c r="U64" s="16"/>
+      <c r="V64" s="16"/>
     </row>
     <row r="65" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
@@ -5553,10 +5553,10 @@
       <c r="R65" s="6">
         <v>4</v>
       </c>
-      <c r="S65" s="23"/>
-      <c r="T65" s="18"/>
-      <c r="U65" s="18"/>
-      <c r="V65" s="18"/>
+      <c r="S65" s="21"/>
+      <c r="T65" s="16"/>
+      <c r="U65" s="16"/>
+      <c r="V65" s="16"/>
     </row>
     <row r="66" spans="1:22" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="7"/>
@@ -5583,10 +5583,10 @@
       <c r="R66" s="5">
         <v>226</v>
       </c>
-      <c r="S66" s="24"/>
-      <c r="T66" s="18"/>
-      <c r="U66" s="18"/>
-      <c r="V66" s="18"/>
+      <c r="S66" s="22"/>
+      <c r="T66" s="16"/>
+      <c r="U66" s="16"/>
+      <c r="V66" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="2">
